--- a/biology/Zoologie/Ancylotherium/Ancylotherium.xlsx
+++ b/biology/Zoologie/Ancylotherium/Ancylotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancylotherium est un genre éteint de mammifères de la famille des Chalicotheriidae (ordre des périssodactyles). 
-C'est un proche cousin des genres Chalicotherium et de Moropus. Il vivait en Afrique, en Asie et en Europe au Miocène et au Pliocène[2],[3]. Il mesurait 2 m de haut, 3 m de long pour un poids maximal de 500 kg.
+C'est un proche cousin des genres Chalicotherium et de Moropus. Il vivait en Afrique, en Asie et en Europe au Miocène et au Pliocène,. Il mesurait 2 m de haut, 3 m de long pour un poids maximal de 500 kg.
 Dinofelis et Amphicyon étaient ses principaux prédateurs.
 </t>
         </is>
@@ -513,12 +525,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (1 juin 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (1 juin 2021) :
 † Ancylotherium hellenicum Koufos, 2012
 † Ancylotherium pentelicum (Gaudry &amp; Lartet, 1856)
-Selon BioLib                    (1 juin 2021)[1] :
+Selon BioLib                    (1 juin 2021) :
 † Ancylotherium anlungense Tung, Huang &amp; Qiu, 1975
 † Ancylotherium fraasi von Koenigswald, 1932
 † Ancylotherium hennigi (Dietrich, 1942)
